--- a/trunk/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Logout_v1.0_EN.xlsx
+++ b/trunk/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Logout_v1.0_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1016,7 @@
   <si>
     <t xml:space="preserve">- Items:
 + "Username" field
-+ "Logout" button
++ "Logout" link
 </t>
   </si>
 </sst>
@@ -3009,6 +3014,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3026,27 +3052,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3364,6 +3369,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5938,7 +5946,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5973,7 +5981,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6204,14 +6212,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6226,12 +6234,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6243,12 +6251,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6257,15 +6265,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6274,11 +6282,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6301,10 +6309,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6322,10 +6330,10 @@
       <c r="B10" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6339,8 +6347,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6348,8 +6356,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6357,8 +6365,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6366,8 +6374,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6375,8 +6383,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6384,8 +6392,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6393,12 +6401,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6406,6 +6408,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6421,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7852,7 +7860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
